--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Расход" sheetId="2" r:id="rId2"/>
     <sheet name="В кассе" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Дата</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Автобусы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого: </t>
+  </si>
+  <si>
+    <t>Итого:</t>
+  </si>
+  <si>
+    <t>В кассе</t>
+  </si>
+  <si>
+    <t>Мой долг</t>
   </si>
 </sst>
 </file>
@@ -104,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -127,17 +139,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -149,10 +210,16 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -526,7 +593,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +626,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>41122</v>
       </c>
       <c r="B2" s="1"/>
@@ -570,32 +637,42 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>1270</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="9">
         <v>41122</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
+        <f>SUM(F2:F3)</f>
+        <v>1470</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -607,10 +684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +696,7 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,12 +712,12 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>41122</v>
       </c>
       <c r="B2" s="1"/>
@@ -648,12 +725,12 @@
         <v>18</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>41122</v>
       </c>
       <c r="B3" s="1"/>
@@ -663,12 +740,12 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1261</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>41122</v>
       </c>
       <c r="B4" s="1"/>
@@ -676,23 +753,35 @@
         <v>14</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>41122</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="4">
+        <f>SUM(E2:E5)</f>
+        <v>1399</v>
       </c>
     </row>
   </sheetData>
@@ -702,32 +791,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>41122</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
+        <f>Приход!F4-Расход!E6</f>
         <v>71</v>
+      </c>
+      <c r="C2" s="6">
+        <v>71</v>
+      </c>
+      <c r="D2" s="6">
+        <f>B2-C2</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Приход" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Дата</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>Мой долг</t>
+  </si>
+  <si>
+    <t>Сабина</t>
+  </si>
+  <si>
+    <t>Визитки</t>
+  </si>
+  <si>
+    <t>Проезд</t>
+  </si>
+  <si>
+    <t>Артем</t>
+  </si>
+  <si>
+    <t>Распр визиток</t>
   </si>
 </sst>
 </file>
@@ -194,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,6 +235,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -590,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,6 +693,50 @@
         <v>1470</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>41127</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>41127</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
+        <f>SUM(F5:F6)</f>
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
@@ -684,10 +747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,6 +847,41 @@
         <v>1399</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>41127</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2">
+        <v>266.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="4">
+        <f>SUM(E7:E8)</f>
+        <v>270.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -791,10 +889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,6 +931,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>41127</v>
+      </c>
+      <c r="B3" s="2">
+        <f>Приход!F7-Расход!E9+B2</f>
+        <v>300.25</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3">
+        <f>B3-C3</f>
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Дата</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Распр визиток</t>
+  </si>
+  <si>
+    <t>Арботранс</t>
+  </si>
+  <si>
+    <t>Макет визитки</t>
   </si>
 </sst>
 </file>
@@ -609,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,16 +731,33 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="15">
+        <v>41127</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
-        <f>SUM(F5:F6)</f>
-        <v>500</v>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <f>SUM(F5:F7)</f>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -936,11 +959,11 @@
         <v>41127</v>
       </c>
       <c r="B3" s="2">
-        <f>Приход!F7-Расход!E9+B2</f>
-        <v>300.25</v>
+        <f>Приход!F8-Расход!E9+B2</f>
+        <v>350.25</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D3">
         <f>B3-C3</f>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Дата</t>
   </si>
@@ -106,6 +106,30 @@
   </si>
   <si>
     <t>Макет визитки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инталио </t>
+  </si>
+  <si>
+    <t>Реклама распространение</t>
+  </si>
+  <si>
+    <t>Астра</t>
+  </si>
+  <si>
+    <t>2000 визиток+макет</t>
+  </si>
+  <si>
+    <t>Письма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Языкомания </t>
+  </si>
+  <si>
+    <t>099-042-05-60</t>
+  </si>
+  <si>
+    <t>Реклама по тарифу F (может больше, решат)</t>
   </si>
 </sst>
 </file>
@@ -137,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -210,12 +234,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,9 +286,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -615,19 +663,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,50 +748,54 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="5">
         <v>41127</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="5">
         <v>41127</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="5">
         <v>41127</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>50</v>
       </c>
     </row>
@@ -758,6 +810,75 @@
       <c r="F8" s="8">
         <f>SUM(F5:F7)</f>
         <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>41128</v>
+      </c>
+      <c r="B9" s="16">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="16">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>41128</v>
+      </c>
+      <c r="B10" s="16">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="16">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>41128</v>
+      </c>
+      <c r="B11" s="19">
+        <v>7</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="8">
+        <f>SUM(F9:F11)</f>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -770,10 +891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,25 +992,30 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="5">
         <v>41127</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>266.75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="5">
+        <v>41127</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2">
+      <c r="D8" s="6"/>
+      <c r="E8" s="4">
         <v>4</v>
       </c>
     </row>
@@ -903,6 +1029,45 @@
       <c r="E9" s="4">
         <f>SUM(E7:E8)</f>
         <v>270.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>41128</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4">
+        <f>5*1.5</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>41128</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="17">
+        <f>SUM(E10:E11)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -912,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,6 +1135,22 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>41128</v>
+      </c>
+      <c r="B4" s="2">
+        <f>Приход!F12-Расход!E12+B3</f>
+        <v>1468.25</v>
+      </c>
+      <c r="C4">
+        <v>1468</v>
+      </c>
+      <c r="D4">
+        <f>B4-C4</f>
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Дата</t>
   </si>
@@ -891,10 +891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,17 +1070,43 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>41129</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="17">
+        <f>SUM(E13)</f>
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,6 +1177,22 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>41129</v>
+      </c>
+      <c r="B5" s="2">
+        <f>Приход!F13-Расход!E13+B4</f>
+        <v>468.25</v>
+      </c>
+      <c r="C5">
+        <v>468</v>
+      </c>
+      <c r="D5">
+        <f>B5-C5</f>
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Дата</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>Реклама по тарифу F (может больше, решат)</t>
+  </si>
+  <si>
+    <t>Раздача в счет з/п</t>
+  </si>
+  <si>
+    <t>Селютин</t>
+  </si>
+  <si>
+    <t>Визитки РБЦ 2000 шт</t>
   </si>
 </sst>
 </file>
@@ -663,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,6 +890,58 @@
         <v>1130</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>41129</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="8">
+        <f>SUM(F13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>41128</v>
+      </c>
+      <c r="B15" s="19">
+        <v>8</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="8">
+        <f>SUM(F15)</f>
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
@@ -891,10 +952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,6 +1156,33 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>41130</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="17">
+        <f>SUM(E15)</f>
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1103,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1270,7 @@
         <v>41129</v>
       </c>
       <c r="B5" s="2">
-        <f>Приход!F13-Расход!E13+B4</f>
+        <f>Приход!F14-Расход!E13+B4</f>
         <v>468.25</v>
       </c>
       <c r="C5">
@@ -1190,6 +1278,22 @@
       </c>
       <c r="D5">
         <f>B5-C5</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>41130</v>
+      </c>
+      <c r="B6" s="2">
+        <f>Приход!F16-Расход!E16+B5</f>
+        <v>548.25</v>
+      </c>
+      <c r="C6">
+        <v>548</v>
+      </c>
+      <c r="D6">
+        <f>B6-C6</f>
         <v>0.25</v>
       </c>
     </row>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Дата</t>
   </si>
@@ -268,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,6 +302,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -952,7 +955,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -1172,15 +1175,43 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>20</v>
+      <c r="A16" s="5">
+        <v>41130</v>
       </c>
       <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" s="13"/>
       <c r="E16" s="17">
-        <f>SUM(E15)</f>
-        <v>100</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>41130</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="17">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="17">
+        <f>SUM(E15:E17)</f>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1286,11 +1317,11 @@
         <v>41130</v>
       </c>
       <c r="B6" s="2">
-        <f>Приход!F16-Расход!E16+B5</f>
-        <v>548.25</v>
+        <f>Приход!F16-Расход!E18+B5</f>
+        <v>408.25</v>
       </c>
       <c r="C6">
-        <v>548</v>
+        <v>408</v>
       </c>
       <c r="D6">
         <f>B6-C6</f>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="Расход" sheetId="2" r:id="rId2"/>
     <sheet name="В кассе" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>Дата</t>
   </si>
@@ -139,13 +139,43 @@
   </si>
   <si>
     <t>Визитки РБЦ 2000 шт</t>
+  </si>
+  <si>
+    <t>Распространение рекламы</t>
+  </si>
+  <si>
+    <t>Евгений</t>
+  </si>
+  <si>
+    <t>Обналичка заказа 2500+2500 А4</t>
+  </si>
+  <si>
+    <t>работа над сайтом</t>
+  </si>
+  <si>
+    <t>Коржева Виктория Викторовна</t>
+  </si>
+  <si>
+    <t>Реклама в формате D</t>
+  </si>
+  <si>
+    <t>процент с обналички</t>
+  </si>
+  <si>
+    <t>Хостинг</t>
+  </si>
+  <si>
+    <t>Работы по сайту</t>
+  </si>
+  <si>
+    <t>Транспорт</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +189,15 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -268,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,6 +344,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -312,74 +361,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -396,7 +377,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFEFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -675,17 +656,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -754,7 +735,7 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="F4" s="25">
         <f>SUM(F2:F3)</f>
         <v>1470</v>
       </c>
@@ -819,7 +800,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8">
+      <c r="F8" s="25">
         <f>SUM(F5:F7)</f>
         <v>550</v>
       </c>
@@ -888,7 +869,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="8">
+      <c r="F12" s="25">
         <f>SUM(F9:F11)</f>
         <v>1130</v>
       </c>
@@ -910,7 +891,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="8">
+      <c r="F14" s="25">
         <f>SUM(F13)</f>
         <v>0</v>
       </c>
@@ -940,9 +921,94 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="8">
+      <c r="F16" s="25">
         <f>SUM(F15)</f>
         <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>41135</v>
+      </c>
+      <c r="B17" s="6">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="6">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>41135</v>
+      </c>
+      <c r="B18" s="6">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>41135</v>
+      </c>
+      <c r="B19" s="6">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>41135</v>
+      </c>
+      <c r="B20" s="6">
+        <v>12</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="25">
+        <f>SUM(F17:F20)</f>
+        <v>3184</v>
       </c>
     </row>
   </sheetData>
@@ -955,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1116,7 @@
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="4">
+      <c r="E6" s="23">
         <f>SUM(E2:E5)</f>
         <v>1399</v>
       </c>
@@ -1090,7 +1156,7 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="4">
+      <c r="E9" s="23">
         <f>SUM(E7:E8)</f>
         <v>270.75</v>
       </c>
@@ -1129,7 +1195,7 @@
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="17">
+      <c r="E12" s="24">
         <f>SUM(E10:E11)</f>
         <v>12</v>
       </c>
@@ -1154,7 +1220,7 @@
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="17">
+      <c r="E14" s="24">
         <f>SUM(E13)</f>
         <v>1000</v>
       </c>
@@ -1209,23 +1275,97 @@
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="17">
+      <c r="E18" s="24">
         <f>SUM(E15:E17)</f>
         <v>240</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>41135</v>
+      </c>
+      <c r="B19" s="6">
+        <v>73</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>41135</v>
+      </c>
+      <c r="B20" s="6">
+        <v>74</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>41135</v>
+      </c>
+      <c r="B21" s="6">
+        <v>75</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>41135</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="24">
+        <f>SUM(E19:E22)</f>
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,6 +1468,22 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>41135</v>
+      </c>
+      <c r="B7" s="2">
+        <f>Приход!F21-Расход!E23+B6</f>
+        <v>3359.25</v>
+      </c>
+      <c r="C7">
+        <v>3360</v>
+      </c>
+      <c r="D7">
+        <f>B7-C7</f>
+        <v>-0.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="Расход" sheetId="2" r:id="rId2"/>
     <sheet name="В кассе" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Дата</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Транспорт</t>
+  </si>
+  <si>
+    <t>Люда сгибание</t>
   </si>
 </sst>
 </file>
@@ -361,6 +364,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -377,7 +448,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFEFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -656,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,27 +1082,53 @@
         <v>3184</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>41136</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="8">
+        <f>SUM(F22:F22)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
@@ -1339,7 +1436,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1351,7 +1448,56 @@
       <c r="D23" s="13"/>
       <c r="E23" s="24">
         <f>SUM(E19:E22)</f>
-        <v>233</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>41136</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6">
+        <v>76</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="24">
+        <f>SUM(E24:E26)</f>
+        <v>1581</v>
       </c>
     </row>
   </sheetData>
@@ -1362,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1546,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="6">
-        <f>B2-C2</f>
+        <f t="shared" ref="D2:D8" si="0">B2-C2</f>
         <v>0</v>
       </c>
     </row>
@@ -1416,7 +1562,7 @@
         <v>350</v>
       </c>
       <c r="D3">
-        <f>B3-C3</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1432,7 +1578,7 @@
         <v>1468</v>
       </c>
       <c r="D4">
-        <f>B4-C4</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1448,7 +1594,7 @@
         <v>468</v>
       </c>
       <c r="D5">
-        <f>B5-C5</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1464,7 +1610,7 @@
         <v>408</v>
       </c>
       <c r="D6">
-        <f>B6-C6</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1474,14 +1620,30 @@
       </c>
       <c r="B7" s="2">
         <f>Приход!F21-Расход!E23+B6</f>
-        <v>3359.25</v>
+        <v>3363.25</v>
       </c>
       <c r="C7">
-        <v>3360</v>
+        <v>3363</v>
       </c>
       <c r="D7">
-        <f>B7-C7</f>
-        <v>-0.75</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>41136</v>
+      </c>
+      <c r="B8" s="2">
+        <f>Приход!F23-Расход!E27+'В кассе'!B7</f>
+        <v>1782.25</v>
+      </c>
+      <c r="C8">
+        <v>1782</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>Дата</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>Люда сгибание</t>
+  </si>
+  <si>
+    <t>ITechnica</t>
+  </si>
+  <si>
+    <t>050-86-10-905</t>
+  </si>
+  <si>
+    <t>Визитки 2000 штук 350 гр без покрытия</t>
   </si>
 </sst>
 </file>
@@ -727,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A25" sqref="A25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,6 +1116,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>41137</v>
+      </c>
+      <c r="B24" s="6">
+        <v>13</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="16">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="8">
+        <f>SUM(F24:F24)</f>
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
@@ -1118,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A29" sqref="A29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1507,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="5">
+        <v>41136</v>
+      </c>
       <c r="B25" s="6">
         <v>76</v>
       </c>
@@ -1478,7 +1522,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="5">
+        <v>41136</v>
+      </c>
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -1498,6 +1544,29 @@
       <c r="E27" s="24">
         <f>SUM(E24:E26)</f>
         <v>1581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>41137</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="17">
+        <f>SUM(E28:E28)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1508,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1615,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D8" si="0">B2-C2</f>
+        <f t="shared" ref="D2:D9" si="0">B2-C2</f>
         <v>0</v>
       </c>
     </row>
@@ -1642,6 +1711,22 @@
         <v>1782</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>41137</v>
+      </c>
+      <c r="B9" s="2">
+        <f>Приход!F25-Расход!E29+'В кассе'!B8</f>
+        <v>1942.25</v>
+      </c>
+      <c r="C9">
+        <v>1942</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>Дата</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Транспорт</t>
   </si>
   <si>
-    <t>Люда сгибание</t>
-  </si>
-  <si>
     <t>ITechnica</t>
   </si>
   <si>
@@ -181,6 +178,18 @@
   </si>
   <si>
     <t>Визитки 2000 штук 350 гр без покрытия</t>
+  </si>
+  <si>
+    <t>Интернет</t>
+  </si>
+  <si>
+    <t>Комиссия</t>
+  </si>
+  <si>
+    <t>Наташа сгибание 2500</t>
+  </si>
+  <si>
+    <t>Люда сгибание 2500</t>
   </si>
 </sst>
 </file>
@@ -1124,13 +1133,13 @@
         <v>13</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="F24" s="16">
         <v>160</v>
@@ -1160,17 +1169,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:E29"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
@@ -1514,7 +1523,7 @@
         <v>76</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="4">
@@ -1551,22 +1560,50 @@
         <v>41137</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="4">
-        <v>0</v>
+        <v>178.61</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>20</v>
+      <c r="A29" s="5">
+        <v>41137</v>
       </c>
       <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="D29" s="13"/>
       <c r="E29" s="17">
-        <f>SUM(E28:E28)</f>
-        <v>0</v>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13">
+        <v>77</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="24">
+        <f>SUM(E28:E30)</f>
+        <v>258.39999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1720,15 +1757,15 @@
         <v>41137</v>
       </c>
       <c r="B9" s="2">
-        <f>Приход!F25-Расход!E29+'В кассе'!B8</f>
-        <v>1942.25</v>
+        <f>Приход!F25-Расход!E31+'В кассе'!B8</f>
+        <v>1683.85</v>
       </c>
       <c r="C9">
-        <v>1942</v>
+        <v>1683</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.84999999999990905</v>
       </c>
     </row>
   </sheetData>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>Дата</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>Люда сгибание 2500</t>
+  </si>
+  <si>
+    <t>Люда проверка раздачи</t>
+  </si>
+  <si>
+    <t>Женя "Клуб авто"</t>
+  </si>
+  <si>
+    <t>10000 календарей без ламин 72 часа</t>
   </si>
 </sst>
 </file>
@@ -745,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:F25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,6 +1167,37 @@
         <v>160</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>41138</v>
+      </c>
+      <c r="B26" s="6">
+        <v>14</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="16">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="8">
+        <f>SUM(F26:F26)</f>
+        <v>738</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
@@ -1169,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,7 +1622,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="5">
+        <v>41137</v>
+      </c>
       <c r="B30" s="13">
         <v>77</v>
       </c>
@@ -1604,6 +1646,29 @@
       <c r="E31" s="24">
         <f>SUM(E28:E30)</f>
         <v>258.39999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>41138</v>
+      </c>
+      <c r="B32">
+        <v>78</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2">
+        <f>SUM(E32:E32)</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1614,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,7 +1717,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D9" si="0">B2-C2</f>
+        <f t="shared" ref="D2:D10" si="0">B2-C2</f>
         <v>0</v>
       </c>
     </row>
@@ -1764,6 +1829,22 @@
         <v>1683</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.84999999999990905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>41138</v>
+      </c>
+      <c r="B10" s="2">
+        <f>Приход!F27-Расход!E33+'В кассе'!B9</f>
+        <v>2391.85</v>
+      </c>
+      <c r="C10">
+        <v>2391</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>0.84999999999990905</v>
       </c>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Расход" sheetId="2" r:id="rId2"/>
     <sheet name="В кассе" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>Дата</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>10000 календарей без ламин 72 часа</t>
+  </si>
+  <si>
+    <t>СВ Гарант</t>
+  </si>
+  <si>
+    <t>099-97-42-509</t>
+  </si>
+  <si>
+    <t>10000 еврофлаеров на 130 за 24 часа</t>
   </si>
 </sst>
 </file>
@@ -754,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,6 +1207,39 @@
         <v>738</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>41142</v>
+      </c>
+      <c r="B28" s="6">
+        <v>15</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="16">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="8">
+        <f>SUM(F28:F28)</f>
+        <v>730</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
@@ -1209,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,23 +1694,57 @@
       <c r="A32" s="5">
         <v>41138</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>78</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="2">
+      <c r="D32" s="6"/>
+      <c r="E32" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="2">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4">
         <f>SUM(E32:E32)</f>
         <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>41138</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>41138</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4">
+        <f>SUM(E34:E35)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1679,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1793,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D10" si="0">B2-C2</f>
+        <f t="shared" ref="D2:D11" si="0">B2-C2</f>
         <v>0</v>
       </c>
     </row>
@@ -1845,6 +1921,22 @@
         <v>2391</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.84999999999990905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>41142</v>
+      </c>
+      <c r="B11" s="2">
+        <f>B10+Приход!F29-Расход!E36</f>
+        <v>3121.85</v>
+      </c>
+      <c r="C11">
+        <v>3121</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>0.84999999999990905</v>
       </c>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>Дата</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>10000 еврофлаеров на 130 за 24 часа</t>
+  </si>
+  <si>
+    <t>3000 визиток 350 гр без покрытия 72 часа</t>
   </si>
 </sst>
 </file>
@@ -346,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,6 +396,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -763,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,16 +1232,52 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="5">
+        <v>41142</v>
+      </c>
+      <c r="B29" s="13">
+        <v>16</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="26">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>41142</v>
+      </c>
+      <c r="B30" s="13">
+        <v>17</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="26">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="8">
-        <f>SUM(F28:F28)</f>
-        <v>730</v>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="8">
+        <f>SUM(F28:F30)</f>
+        <v>1750</v>
       </c>
     </row>
   </sheetData>
@@ -1251,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,7 +1752,7 @@
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="4">
+      <c r="E33" s="23">
         <f>SUM(E32:E32)</f>
         <v>30</v>
       </c>
@@ -1722,29 +1762,48 @@
         <v>41138</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4">
+        <v>756</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>41138</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="16"/>
+      <c r="C35" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4">
+        <v>29</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="A36" s="5"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="D36" s="6"/>
       <c r="E36" s="4">
-        <f>SUM(E34:E35)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4">
+        <f>SUM(E34:E36)</f>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -1930,15 +1989,15 @@
         <v>41142</v>
       </c>
       <c r="B11" s="2">
-        <f>B10+Приход!F29-Расход!E36</f>
-        <v>3121.85</v>
+        <f>B10+Приход!F31-Расход!E37</f>
+        <v>3353.8500000000004</v>
       </c>
       <c r="C11">
-        <v>3121</v>
+        <v>3353</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.84999999999990905</v>
+        <v>0.8500000000003638</v>
       </c>
     </row>
   </sheetData>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1803,7 +1803,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="4">
         <f>SUM(E34:E36)</f>
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -1990,10 +1990,10 @@
       </c>
       <c r="B11" s="2">
         <f>B10+Приход!F31-Расход!E37</f>
-        <v>3353.8500000000004</v>
+        <v>3352.8500000000004</v>
       </c>
       <c r="C11">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>Дата</t>
   </si>
@@ -767,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F33" activeCellId="4" sqref="F23 F25 F27 F31 F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1142,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="8">
+      <c r="F23" s="25">
         <f>SUM(F22:F22)</f>
         <v>0</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="8">
+      <c r="F25" s="25">
         <f>SUM(F24:F24)</f>
         <v>160</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="8">
+      <c r="F27" s="25">
         <f>SUM(F26:F26)</f>
         <v>738</v>
       </c>
@@ -1275,9 +1275,32 @@
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="8">
+      <c r="F31" s="25">
         <f>SUM(F28:F30)</f>
         <v>1750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>41143</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="25">
+        <f>SUM(F32)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1291,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,7 +1807,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="5">
+        <v>41138</v>
+      </c>
       <c r="B36" s="6"/>
       <c r="C36" s="16" t="s">
         <v>50</v>
@@ -1804,6 +1829,57 @@
       <c r="E37" s="4">
         <f>SUM(E34:E36)</f>
         <v>789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>41143</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="4">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>41143</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>41143</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="4">
+        <f>SUM(E38:E40)</f>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -1814,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,7 +1928,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D11" si="0">B2-C2</f>
+        <f t="shared" ref="D2:D12" si="0">B2-C2</f>
         <v>0</v>
       </c>
     </row>
@@ -1996,6 +2072,22 @@
         <v>3352</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.8500000000003638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>41143</v>
+      </c>
+      <c r="B12" s="2">
+        <f>B11+Приход!F33-Расход!E41</f>
+        <v>2629.8500000000004</v>
+      </c>
+      <c r="C12">
+        <v>2629</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>0.8500000000003638</v>
       </c>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Приход" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>Дата</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>3000 визиток 350 гр без покрытия 72 часа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Апелла </t>
+  </si>
+  <si>
+    <t>1000 визиток с ламинацией + макет</t>
+  </si>
+  <si>
+    <t>Моя зарплата за 15 дней</t>
+  </si>
+  <si>
+    <t>050-478-10-38</t>
   </si>
 </sst>
 </file>
@@ -349,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,7 +387,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -767,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F33" activeCellId="4" sqref="F23 F25 F27 F31 F33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +857,7 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <f>SUM(F2:F3)</f>
         <v>1470</v>
       </c>
@@ -911,7 +922,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <f>SUM(F5:F7)</f>
         <v>550</v>
       </c>
@@ -920,17 +931,17 @@
       <c r="A9" s="5">
         <v>41128</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>5</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>780</v>
       </c>
     </row>
@@ -938,17 +949,17 @@
       <c r="A10" s="5">
         <v>41128</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>6</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>240</v>
       </c>
     </row>
@@ -956,19 +967,19 @@
       <c r="A11" s="5">
         <v>41128</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>110</v>
       </c>
     </row>
@@ -980,7 +991,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <f>SUM(F9:F11)</f>
         <v>1130</v>
       </c>
@@ -989,10 +1000,10 @@
       <c r="A13" s="5">
         <v>41129</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -1002,7 +1013,7 @@
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <f>SUM(F13)</f>
         <v>0</v>
       </c>
@@ -1011,16 +1022,16 @@
       <c r="A15" s="5">
         <v>41128</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>8</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <v>180</v>
       </c>
     </row>
@@ -1032,7 +1043,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <f>SUM(F15)</f>
         <v>180</v>
       </c>
@@ -1117,7 +1128,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="25">
+      <c r="F21" s="24">
         <f>SUM(F17:F20)</f>
         <v>3184</v>
       </c>
@@ -1130,7 +1141,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1142,7 +1153,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="25">
+      <c r="F23" s="24">
         <f>SUM(F22:F22)</f>
         <v>0</v>
       </c>
@@ -1163,7 +1174,7 @@
       <c r="E24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>160</v>
       </c>
     </row>
@@ -1175,7 +1186,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="25">
+      <c r="F25" s="24">
         <f>SUM(F24:F24)</f>
         <v>160</v>
       </c>
@@ -1194,7 +1205,7 @@
       <c r="E26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>738</v>
       </c>
     </row>
@@ -1206,7 +1217,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="25">
+      <c r="F27" s="24">
         <f>SUM(F26:F26)</f>
         <v>738</v>
       </c>
@@ -1227,7 +1238,7 @@
       <c r="E28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <v>730</v>
       </c>
     </row>
@@ -1245,7 +1256,7 @@
       <c r="E29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="25">
         <v>780</v>
       </c>
     </row>
@@ -1263,7 +1274,7 @@
       <c r="E30" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="25">
         <v>240</v>
       </c>
     </row>
@@ -1275,7 +1286,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="25">
+      <c r="F31" s="24">
         <f>SUM(F28:F30)</f>
         <v>1750</v>
       </c>
@@ -1288,7 +1299,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="26"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -1298,9 +1309,42 @@
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="25">
+      <c r="F33" s="24">
         <f>SUM(F32)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>41144</v>
+      </c>
+      <c r="B34" s="13">
+        <v>18</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="24">
+        <f>SUM(F34)</f>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1314,17 +1358,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
@@ -1409,7 +1453,7 @@
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <f>SUM(E2:E5)</f>
         <v>1399</v>
       </c>
@@ -1449,7 +1493,7 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <f>SUM(E7:E8)</f>
         <v>270.75</v>
       </c>
@@ -1488,7 +1532,7 @@
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <f>SUM(E10:E11)</f>
         <v>12</v>
       </c>
@@ -1513,7 +1557,7 @@
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <f>SUM(E13)</f>
         <v>1000</v>
       </c>
@@ -1538,11 +1582,11 @@
         <v>41130</v>
       </c>
       <c r="B16" s="13"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>4</v>
       </c>
     </row>
@@ -1551,13 +1595,13 @@
         <v>41130</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>136</v>
       </c>
     </row>
@@ -1568,7 +1612,7 @@
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <f>SUM(E15:E17)</f>
         <v>240</v>
       </c>
@@ -1628,7 +1672,7 @@
       <c r="A22" s="5">
         <v>41135</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="2">
@@ -1642,7 +1686,7 @@
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <f>SUM(E19:E22)</f>
         <v>229</v>
       </c>
@@ -1695,7 +1739,7 @@
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="24">
+      <c r="E27" s="23">
         <f>SUM(E24:E26)</f>
         <v>1581</v>
       </c>
@@ -1722,7 +1766,7 @@
         <v>55</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="17">
+      <c r="E29" s="16">
         <v>4.79</v>
       </c>
     </row>
@@ -1737,7 +1781,7 @@
         <v>56</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>75</v>
       </c>
     </row>
@@ -1748,7 +1792,7 @@
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="24">
+      <c r="E31" s="23">
         <f>SUM(E28:E30)</f>
         <v>258.39999999999998</v>
       </c>
@@ -1760,7 +1804,7 @@
       <c r="B32" s="6">
         <v>78</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="6"/>
@@ -1775,7 +1819,7 @@
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <f>SUM(E32:E32)</f>
         <v>30</v>
       </c>
@@ -1798,7 +1842,7 @@
         <v>41138</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="6"/>
@@ -1811,7 +1855,7 @@
         <v>41138</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D36" s="6"/>
@@ -1826,7 +1870,7 @@
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="4">
+      <c r="E37" s="22">
         <f>SUM(E34:E36)</f>
         <v>789</v>
       </c>
@@ -1849,7 +1893,7 @@
         <v>41143</v>
       </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="6"/>
@@ -1862,7 +1906,7 @@
         <v>41143</v>
       </c>
       <c r="B40" s="6"/>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="6"/>
@@ -1877,9 +1921,49 @@
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="4">
+      <c r="E41" s="22">
         <f>SUM(E38:E40)</f>
         <v>723</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41143</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>41143</v>
+      </c>
+      <c r="B43" s="6">
+        <v>79</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="4">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="22">
+        <f>SUM(E42:E43)</f>
+        <v>1383</v>
       </c>
     </row>
   </sheetData>
@@ -1890,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,171 +2012,188 @@
         <v>71</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D12" si="0">B2-C2</f>
+        <f t="shared" ref="D2:D13" si="0">B2-C2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="5">
         <v>41127</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <f>Приход!F8-Расход!E9+B2</f>
         <v>350.25</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>350</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="5">
         <v>41128</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <f>Приход!F12-Расход!E12+B3</f>
         <v>1468.25</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>1468</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="5">
         <v>41129</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <f>Приход!F14-Расход!E13+B4</f>
         <v>468.25</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>468</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="5">
         <v>41130</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <f>Приход!F16-Расход!E18+B5</f>
         <v>408.25</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>408</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="5">
         <v>41135</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <f>Приход!F21-Расход!E23+B6</f>
         <v>3363.25</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>3363</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="5">
         <v>41136</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <f>Приход!F23-Расход!E27+'В кассе'!B7</f>
         <v>1782.25</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>1782</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="5">
         <v>41137</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <f>Приход!F25-Расход!E31+'В кассе'!B8</f>
         <v>1683.85</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>1683</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0.84999999999990905</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="5">
         <v>41138</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <f>Приход!F27-Расход!E33+'В кассе'!B9</f>
         <v>2391.85</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>2391</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0.84999999999990905</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="5">
         <v>41142</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <f>B10+Приход!F31-Расход!E37</f>
         <v>3352.8500000000004</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>3352</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0.8500000000003638</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="5">
         <v>41143</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <f>B11+Приход!F33-Расход!E41</f>
         <v>2629.8500000000004</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>2629</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0.8500000000003638</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>41144</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B12+Приход!F35-Расход!E44</f>
+        <v>1391.8500000000004</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1421</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="0"/>
+        <v>-29.149999999999636</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Приход" sheetId="1" r:id="rId1"/>
     <sheet name="Расход" sheetId="2" r:id="rId2"/>
     <sheet name="В кассе" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -415,74 +415,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -499,7 +431,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFEFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1360,7 +1292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -1976,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,11 +2117,11 @@
         <v>1391.8500000000004</v>
       </c>
       <c r="C13" s="15">
-        <v>1421</v>
+        <v>1391</v>
       </c>
       <c r="D13" s="15">
         <f t="shared" si="0"/>
-        <v>-29.149999999999636</v>
+        <v>0.8500000000003638</v>
       </c>
     </row>
   </sheetData>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="Расход" sheetId="2" r:id="rId2"/>
     <sheet name="В кассе" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>Дата</t>
   </si>
@@ -223,6 +223,24 @@
   </si>
   <si>
     <t>050-478-10-38</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>066-170-81-83</t>
+  </si>
+  <si>
+    <t>1000 визиток с ламинацией</t>
+  </si>
+  <si>
+    <t>Красавцев А.Г.</t>
+  </si>
+  <si>
+    <t>095-240-09-11</t>
+  </si>
+  <si>
+    <t>1000+1000 визиток с 2-х стор ламинацией</t>
   </si>
 </sst>
 </file>
@@ -415,6 +433,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -431,7 +517,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFEFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -710,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,6 +1365,59 @@
         <v>145</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>41148</v>
+      </c>
+      <c r="B36" s="13">
+        <v>19</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>41148</v>
+      </c>
+      <c r="B37" s="13">
+        <v>20</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="24">
+        <f>SUM(F36:F37)</f>
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
@@ -1290,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,6 +2037,29 @@
         <v>1383</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>41143</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="22">
+        <f>SUM(E45:E45)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
@@ -1906,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D13" si="0">B2-C2</f>
+        <f t="shared" ref="D2:D14" si="0">B2-C2</f>
         <v>0</v>
       </c>
     </row>
@@ -2120,6 +2282,22 @@
         <v>1391</v>
       </c>
       <c r="D13" s="15">
+        <f t="shared" si="0"/>
+        <v>0.8500000000003638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>41148</v>
+      </c>
+      <c r="B14" s="4">
+        <f>B13+Приход!F38-Расход!E46</f>
+        <v>1754.8500000000004</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1754</v>
+      </c>
+      <c r="D14" s="15">
         <f t="shared" si="0"/>
         <v>0.8500000000003638</v>
       </c>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -1402,7 +1402,7 @@
         <v>74</v>
       </c>
       <c r="F37" s="25">
-        <v>268</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="24">
         <f>SUM(F36:F37)</f>
-        <v>363</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2292,10 +2292,10 @@
       </c>
       <c r="B14" s="4">
         <f>B13+Приход!F38-Расход!E46</f>
-        <v>1754.8500000000004</v>
+        <v>1620.8500000000004</v>
       </c>
       <c r="C14" s="15">
-        <v>1754</v>
+        <v>1620</v>
       </c>
       <c r="D14" s="15">
         <f t="shared" si="0"/>

--- a/Касса/Приход-Расход.xlsx
+++ b/Касса/Приход-Расход.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
   <si>
     <t>Дата</t>
   </si>
@@ -241,18 +241,44 @@
   </si>
   <si>
     <t>1000+1000 визиток с 2-х стор ламинацией</t>
+  </si>
+  <si>
+    <t>ЛюксАвто</t>
+  </si>
+  <si>
+    <t>050-68-22-528</t>
+  </si>
+  <si>
+    <t>1000 визиток без ламинации 72 часа</t>
+  </si>
+  <si>
+    <t>Типография</t>
+  </si>
+  <si>
+    <t>Люксавто</t>
+  </si>
+  <si>
+    <t>Должны сдачу</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,9 +403,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -418,14 +444,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -796,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1067,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>41128</v>
+        <v>41130</v>
       </c>
       <c r="B15" s="18">
         <v>8</v>
@@ -1416,6 +1445,71 @@
       <c r="F38" s="24">
         <f>SUM(F36:F37)</f>
         <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>41149</v>
+      </c>
+      <c r="B39" s="13">
+        <v>21</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>41149</v>
+      </c>
+      <c r="B41" s="13">
+        <v>22</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="24">
+        <f>SUM(F39:F41)</f>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -1429,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,7 +2093,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>41143</v>
+        <v>41144</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="15" t="s">
@@ -2012,7 +2106,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>41143</v>
+        <v>41144</v>
       </c>
       <c r="B43" s="6">
         <v>79</v>
@@ -2039,7 +2133,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>41143</v>
+        <v>41148</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="15"/>
@@ -2058,6 +2152,44 @@
       <c r="E46" s="22">
         <f>SUM(E45:E45)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>41149</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="26">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>41149</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="26">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="22">
+        <f>SUM(E47:E48)</f>
+        <v>197.5</v>
       </c>
     </row>
   </sheetData>
@@ -2068,10 +2200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,7 +2238,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D14" si="0">B2-C2</f>
+        <f t="shared" ref="D2:D15" si="0">B2-C2</f>
         <v>0</v>
       </c>
     </row>
@@ -2300,6 +2432,22 @@
       <c r="D14" s="15">
         <f t="shared" si="0"/>
         <v>0.8500000000003638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>41149</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B14+Приход!F42-Расход!E49</f>
+        <v>2293.3500000000004</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2293</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" si="0"/>
+        <v>0.3500000000003638</v>
       </c>
     </row>
   </sheetData>
